--- a/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-02-18.xlsx
+++ b/archive/InnovateUK_Funding_Opportunities_WeeklyBreakdown_2026-02-18.xlsx
@@ -8,36 +8,37 @@
   </bookViews>
   <sheets>
     <sheet name="Weekly counts (Wed)" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Week 2026-02-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Week 2026-02-04" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Week 2026-01-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Week 2026-01-21" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Week 2026-01-14" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Week 2026-01-07" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Week 2025-12-31" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Week 2025-12-24" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Week 2025-12-17" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Week 2025-12-10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Week 2025-11-26" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Week 2025-11-05" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Week 2025-10-29" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Week 2025-10-22" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Week 2025-10-15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Week 2025-10-08" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Week 2025-10-01" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Week 2025-09-24" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Week 2025-09-17" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Week 2025-09-10" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Week 2025-09-03" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Week 2025-08-27" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Week 2025-08-20" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Week 2025-08-13" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Week 2025-08-06" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Week 2025-07-23" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Week 2025-07-09" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Week 2025-07-02" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Week 2025-06-25" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Week 2025-06-11" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Week 2026-02-18" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Week 2026-02-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Week 2026-02-04" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Week 2026-01-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Week 2026-01-21" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Week 2026-01-14" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Week 2026-01-07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Week 2025-12-31" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Week 2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Week 2025-12-17" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Week 2025-12-10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Week 2025-11-26" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Week 2025-11-05" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Week 2025-10-29" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Week 2025-10-22" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Week 2025-10-15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Week 2025-10-08" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Week 2025-10-01" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Week 2025-09-24" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Week 2025-09-17" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Week 2025-09-10" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Week 2025-09-03" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Week 2025-08-27" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Week 2025-08-20" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Week 2025-08-13" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Week 2025-08-06" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Week 2025-07-23" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Week 2025-07-09" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Week 2025-07-02" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Week 2025-06-25" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Week 2025-06-11" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,189 +483,189 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>46064</v>
+        <v>46071</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46057</v>
+        <v>46064</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46050</v>
+        <v>46057</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>46043</v>
+        <v>46050</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>46029</v>
+        <v>46036</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>46008</v>
+        <v>46015</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45994</v>
+        <v>46001</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45973</v>
+        <v>45980</v>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -678,91 +679,91 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45966</v>
+        <v>45973</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45959</v>
+        <v>45966</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45952</v>
+        <v>45959</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45945</v>
+        <v>45952</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45938</v>
+        <v>45945</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -776,35 +777,35 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45917</v>
+        <v>45924</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45910</v>
+        <v>45917</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
@@ -818,169 +819,183 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45896</v>
+        <v>45903</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45889</v>
+        <v>45896</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45882</v>
+        <v>45889</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45875</v>
+        <v>45882</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45868</v>
+        <v>45875</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45861</v>
+        <v>45868</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45854</v>
+        <v>45861</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45847</v>
+        <v>45854</v>
       </c>
       <c r="B33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45840</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45833</v>
+        <v>45840</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>45819</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>25</v>
       </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -990,6 +1005,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Eurostars call for projects – March 2026</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/eurostars-call-for-projects-march-2026/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-12-24 08:22</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46015.34861111111</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16/01/2026</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>19/03/2026                              14:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>46100.58333333334</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
+        <v>46015</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>46015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1482,7 +1648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5679,7 +5845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5881,7 +6047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6185,7 +6351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6440,7 +6606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6801,7 +6967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7264,7 +7430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7455,155 +7621,6 @@
       </c>
       <c r="O3" s="1" t="n">
         <v>45938</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eureka GlobalStars Japan 2026</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-10-03 08:17</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45933.34513888889</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Wednesday 21 January 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>46043.45833333334</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>£600,000</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>45931</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -7710,21 +7727,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Farming Innovation Programme: Feasibility Round 4</t>
+          <t>Eureka GlobalStars Japan 2026</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2276/overview/19635c62-dd91-41d8-a90e-547cdb5acbfa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-29 08:20</t>
+          <t>2025-10-03 08:17</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45929.34722222222</v>
+        <v>45933.34513888889</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -7737,22 +7754,22 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wednesday 3 December 2025 11:00am</t>
+          <t>Wednesday 21 January 2026 11:00am</t>
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45994.45833333334</v>
+        <v>46043.45833333334</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>£500,000</t>
+          <t>£600,000</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>45924</v>
+        <v>45931</v>
       </c>
     </row>
   </sheetData>
@@ -7766,7 +7783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7859,21 +7876,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+          <t>Southwest Wales Net Zero Industry Launchpad Round 2 - Call for challenge holders</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/advancing-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
+          <t>https://iuk-business-connect.org.uk/opportunities/southwest-wales-net-zero-industry-launchpad-round-2-call-for-challenge-holders/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2026-02-12 10:33</t>
+          <t>2026-02-18 10:32</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46065.43958333333</v>
+        <v>46071.43888888889</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -7884,759 +7901,30 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16/02/2026</t>
+          <t>18/02/2026</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>46069</v>
+        <v>46071</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>06/05/2026                              11:00</t>
+          <t>13/03/2026                              00:00</t>
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>46148.45833333334</v>
+        <v>46094</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>£10.0 million</t>
+          <t>£25,000</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>46064</v>
+        <v>46071</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Critical material recovery from e-waste recycling process by-products</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/critical-material-recovery-from-e-waste-recycling-process-by-products/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2026-02-12 10:33</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>46065.43958333333</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>16/02/2026</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>46069</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>31/03/2026                              23:59</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>46112.99930555555</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ARIA: Scaling Trust - Tooling and Fundamental Research</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/aria-scaling-trust-tooling-and-fundamental-research/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2026-02-13 10:28</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>46066.43611111111</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>09/02/2026</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>46062</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>24/03/2026                              14:00</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>46105.58333333334</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>£200</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/uk-germany-collaborative-innovation-for-quantum-technologies-2026/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2026-02-13 10:28</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>46066.43611111111</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>12/02/2026</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>46065</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>15/04/2026                              11:00</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>46127.45833333334</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/contracts-for-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2026-02-13 10:28</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>46066.43611111111</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>16/02/2026</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>46069</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>06/05/2026                              11:00</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>46148.45833333334</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>£20.0 million</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/zero-emission-flight-demonstrator-round-1/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2026-02-13 10:28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>46066.43611111111</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>16/02/2026</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>46069</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>01/04/2026                              11:00</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>46113.45833333334</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>£8.0 million</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>European Space Agency: Sustainable Wetlands</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/european-space-agency-sustainable-wetlands/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2026-02-14 10:14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>46067.42638888889</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>16/03/2026</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>46097</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>01/05/2026                              17:00</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>46143.70833333334</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Inclusive Mobility Challenge: Safe Urban Navigation for People with Access Needs</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/inclusive-mobility-challenge-safe-urban-navigation-for-people-with-access-needs/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2026-02-16 10:37</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>46069.44236111111</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>16/02/2026</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>46069</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>27/03/2026                              12:00</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>46108.5</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>£500,000</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PQA ICURe Engage - March 2026</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/pqa2-icure-engage-march-2026/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2026-02-17 10:34</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>46070.44027777778</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>29/01/2026</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>46051</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>24/02/2026                              23:59</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>46077.99930555555</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>£4</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Zero Emission Flight Demonstrator Round 1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2026-02-12 10:40</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>46065.44444444445</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Wednesday 1 April 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>46113.45833333334</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>£5.0 million</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2026-02-12 10:40</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>46065.44444444445</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>46148.45833333334</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>£1.5 million</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2026-02-12 10:40</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>46065.44444444445</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Wednesday 6 May 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>46148.45833333334</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>£10.0 million</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2026-02-13 10:35</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>46066.44097222222</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Wednesday 15 April 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>46127.45833333334</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>£1.0 million</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: industrial human relevant drug models</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2396/overview/d55398bb-ff62-43b9-9ee1-bf3fa4b95c5c</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2026-02-17 10:40</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>46070.44444444445</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Wednesday 15 April 2026 11:00am</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>46127.45833333334</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>£200,000</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>46064</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>46064</v>
+        <v>46071</v>
       </c>
     </row>
   </sheetData>
@@ -8645,6 +7933,155 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Farming Innovation Programme: Feasibility Round 4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2006/overview/b67973b5-6d46-4a34-a864-bec1212e3fe0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-09-29 08:20</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45929.34722222222</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wednesday 3 December 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45994.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£500,000</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>45924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8943,208 +8380,6 @@
       </c>
       <c r="O5" s="1" t="n">
         <v>45917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-09-12 08:17</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45912.34513888889</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Tuesday 28 October 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>45958.45833333334</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>£300,000</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>45910</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-09-16 08:19</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45916.34652777778</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>45945.45833333334</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>£40,000</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>45910</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>45910</v>
       </c>
     </row>
   </sheetData>
@@ -9251,21 +8486,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 4</t>
+          <t>UK-Netherlands Co-Innovation and Testbeds Pilot for Quantum Tech</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2288/overview/d547d84e-d652-4ed6-9c85-b12ab8d785d2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-09-04 08:18</t>
+          <t>2025-09-12 08:17</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45904.34583333333</v>
+        <v>45912.34513888889</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -9278,22 +8513,22 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
+          <t>Tuesday 28 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45945.45833333334</v>
+        <v>45958.45833333334</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£300,000</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
     </row>
     <row r="3">
@@ -9304,21 +8539,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Innovate UK Innovation Loans Round 23</t>
+          <t>Contracts for Innovation: Quantum Technologies for Transport - Phase 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2292/overview/cdea3182-7495-4cad-8435-f49882f08ec7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-09-05 08:18</t>
+          <t>2025-09-16 08:19</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45905.34583333333</v>
+        <v>45916.34652777778</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -9331,22 +8566,22 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Wednesday 22 October 2025 11:00am</t>
+          <t>Wednesday 15 October 2025 11:00am</t>
         </is>
       </c>
       <c r="L3" s="2" t="n">
-        <v>45952.45833333334</v>
+        <v>45945.45833333334</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>£5.0 million</t>
+          <t>£40,000</t>
         </is>
       </c>
       <c r="N3" s="2" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>45903</v>
+        <v>45910</v>
       </c>
     </row>
   </sheetData>
@@ -9355,6 +8590,208 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ADOPT Facilitator Support Grant: Round 4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2277/overview/7386173a-c074-4617-b7d0-f54f3a458247</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-09-04 08:18</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45904.34583333333</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wednesday 15 October 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£2,500</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>45903</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Innovate UK Innovation Loans Round 23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2275/overview/dec9b656-5f30-414e-a169-e11e17d04896</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-09-05 08:18</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45905.34583333333</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Wednesday 22 October 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45952.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>£5.0 million</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>45903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9605,7 +9042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9754,7 +9191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10002,155 +9439,6 @@
       </c>
       <c r="O4" s="1" t="n">
         <v>45882</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sovereign AI - Proof of concept</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-08-07 08:21</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45876.34791666667</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Wednesday 10 September 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>45910.45833333334</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>£120,000</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>45875</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>45875</v>
       </c>
     </row>
   </sheetData>
@@ -10257,21 +9545,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ADOPT Facilitator Support Grant: Round 3</t>
+          <t>Sovereign AI - Proof of concept</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2259/overview/9061ddb2-fa12-45c9-8691-d36649c96e9c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-25 08:20</t>
+          <t>2025-08-07 08:21</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45863.34722222222</v>
+        <v>45876.34791666667</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -10284,22 +9572,22 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wednesday 3 September 2025 11:00am</t>
+          <t>Wednesday 10 September 2025 11:00am</t>
         </is>
       </c>
       <c r="L2" s="2" t="n">
-        <v>45903.45833333334</v>
+        <v>45910.45833333334</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>£2,500</t>
+          <t>£120,000</t>
         </is>
       </c>
       <c r="N2" s="2" t="n">
-        <v>45861</v>
+        <v>45875</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>45861</v>
+        <v>45875</v>
       </c>
     </row>
   </sheetData>
@@ -10308,6 +9596,155 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ADOPT Facilitator Support Grant: Round 3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2251/overview/f40e861a-c7f6-4597-ac5d-2e8d1b4f59f8</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-07-25 08:20</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45863.34722222222</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wednesday 3 September 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45903.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£2,500</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>45861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10774,7 +10211,891 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/advancing-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:33</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46065.43958333333</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>06/05/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£10.0 million</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Critical material recovery from e-waste recycling process by-products</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/critical-material-recovery-from-e-waste-recycling-process-by-products/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:33</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>46065.43958333333</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>31/03/2026                              23:59</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>46112.99930555555</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ARIA: Scaling Trust - Tooling and Fundamental Research</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/aria-scaling-trust-tooling-and-fundamental-research/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:28</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>46066.43611111111</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>09/02/2026</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>24/03/2026                              14:00</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>46105.58333333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>£200</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/uk-germany-collaborative-innovation-for-quantum-technologies-2026/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:28</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>46066.43611111111</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>12/02/2026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>15/04/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>46127.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>£3.0 million</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/contracts-for-innovation-in-drug-and-alcohol-addiction-healthcare/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:28</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>46066.43611111111</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>06/05/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>£20.0 million</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/zero-emission-flight-demonstrator-round-1/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:28</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>46066.43611111111</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>01/04/2026                              11:00</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>46113.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>£8.0 million</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>European Space Agency: Sustainable Wetlands</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/european-space-agency-sustainable-wetlands/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2026-02-14 10:14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>46067.42638888889</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>16/03/2026</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>46097</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>01/05/2026                              17:00</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>46143.70833333334</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Inclusive Mobility Challenge: Safe Urban Navigation for People with Access Needs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/inclusive-mobility-challenge-safe-urban-navigation-for-people-with-access-needs/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2026-02-16 10:37</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>46069.44236111111</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>16/02/2026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>27/03/2026                              12:00</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>46108.5</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>£500,000</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Innovate UK Business Connect</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PQA ICURe Engage - March 2026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://iuk-business-connect.org.uk/opportunities/pqa2-icure-engage-march-2026/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:34</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>46070.44027777778</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>29/01/2026</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>24/02/2026                              23:59</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>46077.99930555555</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>£4</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zero Emission Flight Demonstrator Round 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2397/overview/752074ec-5f01-46d8-863f-596300a11651</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:40</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>46065.44444444445</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Wednesday 1 April 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>46113.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>£5.0 million</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation in drug and alcohol addiction healthcare</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2395/overview/3d49fbc4-6e09-4dd8-9ac8-8e5f88facd8d</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:40</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>46065.44444444445</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Wednesday 6 May 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>£1.5 million</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Advancing innovation in drug and alcohol addiction healthcare</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2394/overview/33b56af8-353f-46ac-bb66-a0928731c0fc</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2026-02-12 10:40</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>46065.44444444445</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Wednesday 6 May 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>46148.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>£10.0 million</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>UK-Germany Collaborative Innovation for Quantum Technologies 2026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2392/overview/b8b93732-6326-4aed-9af3-334e4cc5ecc0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2026-02-13 10:35</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>46066.44097222222</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Wednesday 15 April 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>46127.45833333334</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>£1.0 million</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: industrial human relevant drug models</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2396/overview/d55398bb-ff62-43b9-9ee1-bf3fa4b95c5c</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2026-02-17 10:40</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>46070.44444444445</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Wednesday 15 April 2026 11:00am</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>46127.45833333334</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>£200,000</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>46064</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11025,7 +11346,1614 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-06-26 08:52</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45834.36944444444</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wednesday 20 August 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£500,000</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Full ADOPT Grant Round 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-06-26 08:52</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45834.36944444444</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Wednesday 20 August 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45889.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>45833</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Date Added</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Date Added Parsed OK</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Date Added Parse Issue</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Date Added In Future</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Opening Date Raw</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Opening Date</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Closing Date Raw</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Closing Date</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Max Grant</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed)</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Week commencing (Wed) (date)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Wednesday 5 November 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>45966.45833333334</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>£3.0 million</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ADOPT Facilitator Support Grant: Round 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Thursday 24 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>45862.45833333334</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>£2,500</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New Innovators in Marine and Maritime, Great South West</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>£50,000</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O5" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Thursday 4 September 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>45904.45833333334</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATI Programme strategic batch: EoI – June 2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Wednesday 18 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Defra Farming Innovation Investor Partnership</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>£3.0 million</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>£150,000</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>£150,000</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Wednesday 18 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>£250,000</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>£1.5 million</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: Clean Air, Phase 3</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Wednesday 18 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>£3.0 million</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Wednesday 18 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45826.45833333334</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>£5.0 million</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Canada-UK Semiconductors</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Wednesday 15 October 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45945.45833333334</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>£500,000</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>£35,000</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Innovate UK innovation loans future economy: Round 21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>£2.0 million</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>£2.5 million</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>£2.5 million</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Wednesday 2 July 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="n">
+        <v>45840.45833333334</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>£2.0 million</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Full ADOPT Grant: Round 1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Wednesday 25 June 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="n">
+        <v>45833.45833333334</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>£100,000</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Thursday 27 November 2025 4:00pm</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Horizon Europe Guarantee Extension</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-06-14 08:41</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45822.36180555556</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Thursday 27 November 2025 4:00pm</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Innovate Funding Service</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:04</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45824.91944444444</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Wednesday 17 September 2025 11:00am</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="n">
+        <v>45917.45833333334</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>£8,500</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>45819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11579,1614 +13507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Agri-tech and food technology, Mid and North Wales - CRD</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2212/overview/4411087f-2a92-4aed-b735-d1a813376bec</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-06-26 08:52</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45834.36944444444</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Wednesday 20 August 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>45889.45833333334</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>£500,000</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>45833</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Full ADOPT Grant Round 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2222/overview/c3d5b2f9-e4d4-4ddc-99a2-589904ac3d42</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-06-26 08:52</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45834.36944444444</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Wednesday 20 August 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>45889.45833333334</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>45833</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>45833</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Future Leaders Fellowships: Round 10, business and non-academic</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2058/overview/0f904547-f415-4fb9-94a7-0701c38a2ba1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Wednesday 5 November 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>45966.45833333334</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ADOPT Facilitator Support Grant: Round 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2223/overview/4e423e05-3228-45e3-9cfe-0b39d1227307</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Thursday 24 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>45862.45833333334</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>£2,500</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MSI Improving energy or resource efficiency in manufacturing FS</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2225/overview/c43ef163-3872-4178-b80d-88c406691610</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>New Innovators in Marine and Maritime, Great South West</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2215/overview/67b86d6c-bab9-4a01-aacc-3da2e57edc99</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>£50,000</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Commercialising Knowledge Assets Fund (CKAF) Autumn</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2217/overview/c555f64e-5485-4e49-89b8-32d61fac4ff0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Thursday 4 September 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>45904.45833333334</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>£250,000</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ATI Programme strategic batch: EoI – June 2025</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2218/overview/a45dcc8a-b621-4a79-9e4d-046e19b6b1e9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Defra Farming Innovation Investor Partnership</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2207/overview/05e5263b-75a1-49a0-87f0-261541af0840</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ofgem Strategic Innovation Fund Round 5 Discovery C3</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2204/overview/9da241b9-1fd8-49fb-b8d0-4a81a637b3b5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>£150,000</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ofgem Strategic Innovation Fund Round 4 Discovery C3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2200/overview/0f0721c8-5a37-4046-8e4f-7649194e8adc</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>£150,000</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: Scaling community initiatives in diet and exercise</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2191/overview/6a097cf8-8f81-495d-b56f-3f240cfde64c</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>£250,000</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: Quantum Sensors and PNT Missions Primer</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2209/overview/28f8801b-a8b3-48c8-8c81-64d75341b81d</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>£1.5 million</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: Net Zero Living Tech Trials, phase 3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2189/overview/a59ac38e-662b-49a5-b7f9-a44c2cc38c61</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O13" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: Clean Air, Phase 3</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2181/overview/02aad9d2-c984-4bd5-a3f6-80f25ec62870</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI Tools and software</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2194/overview/91c68630-20eb-4247-8296-ae1737637756</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>£3.0 million</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Contracts for Innovation: DSbD Advancing CHERI RISC-V Devices</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2198/overview/b2e2fd41-d372-4e33-a6df-8bfefb8de0f9</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Wednesday 18 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>45826.45833333334</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>£5.0 million</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Canada-UK Semiconductors</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2192/overview/3906cbd5-fec2-4c1f-897d-ccab071708b3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Wednesday 15 October 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>45945.45833333334</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>£500,000</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Accelerated Knowledge Transfer 4 (AKT4) Addiction</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2178/overview/2699060f-dd6f-415b-ae47-bead15aa430e</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>£35,000</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Innovate UK innovation loans future economy: Round 21</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2188/overview/20c89a26-2479-4f80-b35a-b62ed3b9b3ce</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>£2.0 million</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Farming Futures R&amp;D Fund: Precision Breeding Competition</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2168/overview/0fef9171-75b0-4f3e-acef-42920e7e5d5e</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>£2.5 million</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Farming Futures R&amp;D Fund: low emissions farming</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2169/overview/64b0d550-3f46-4ab4-a0cd-5fa7ac488cb6</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>£2.5 million</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Investor Partnerships: Clean Energy and Climate Technologies</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2175/overview/7487b4f1-51e6-4f15-a4c8-f103559d14bb</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Wednesday 2 July 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="n">
-        <v>45840.45833333334</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>£2.0 million</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Full ADOPT Grant: Round 1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2162/overview/c35de0a9-5072-4142-8a52-1cdce8ef3871</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Wednesday 25 June 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="n">
-        <v>45833.45833333334</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>£100,000</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Horizon Europe Guarantee - EIT KICs 2023</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1585/overview/32135a71-171a-46bf-ad56-e2e65a1a3574</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Thursday 27 November 2025 4:00pm</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Horizon Europe Guarantee Extension</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/1389/overview/b900fdc4-c48d-4d8a-8733-ce4ca210ae9a</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2025-06-14 08:41</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>45822.36180555556</v>
-      </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Thursday 27 November 2025 4:00pm</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Innovate Funding Service</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Knowledge Transfer Partnership (KTP): 2025 – 2026 Round 3</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://apply-for-innovation-funding.service.gov.uk/competition/2184/overview/c599b17c-e13a-4e13-995e-53cc4d4508a1</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2025-06-16 22:04</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>45824.91944444444</v>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Wednesday 17 September 2025 11:00am</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="n">
-        <v>45917.45833333334</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>£8,500</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>45819</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>45819</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14142,7 +14463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14683,7 +15004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15529,7 +15850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16475,7 +16796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16889,155 +17210,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Date Added</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Date Added Parsed OK</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Date Added Parse Issue</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Date Added In Future</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Opening Date Raw</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Opening Date</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Closing Date Raw</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Closing Date</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Max Grant</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed)</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Week commencing (Wed) (date)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Innovate UK Business Connect</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eurostars call for projects – March 2026</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://iuk-business-connect.org.uk/opportunities/eurostars-call-for-projects-march-2026/</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-12-24 08:22</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>46015.34861111111</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>16/01/2026</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>46038</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>19/03/2026                              14:00</t>
-        </is>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>46100.58333333334</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" s="2" t="n">
-        <v>46015</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>46015</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>